--- a/day29/test.xlsx
+++ b/day29/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,57 +28,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>sdfss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dfads</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdfas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fsdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfsd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfsdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdfsd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sgf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,47 +413,47 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2">
+        <v>456</v>
+      </c>
+      <c r="C2" s="1">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>234</v>
-      </c>
-      <c r="B3" s="1">
-        <v>324234</v>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -497,13 +485,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
